--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>ID_USUARIO</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>A@141516182235</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -417,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,6 +487,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>ID_USUARIO</t>
   </si>
@@ -48,27 +48,6 @@
   </si>
   <si>
     <t>A@141516182235</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>wer</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -438,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,66 +466,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
@@ -47,7 +47,7 @@
     <t>ecruzlagunes</t>
   </si>
   <si>
-    <t>A@141516182235</t>
+    <t>cuAuSbzsPHs5D9Bq33w17w==</t>
   </si>
 </sst>
 </file>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="US_USUARIOS">US_USUARIOS!$A$1:$G$1</definedName>
+    <definedName name="US_USUARIOS">US_USUARIOS!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ID_USUARIO</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>ID_NIVEL_USUARIO</t>
-  </si>
-  <si>
-    <t>ID_HISTORIAL</t>
   </si>
   <si>
     <t>USUARIO</t>
@@ -417,13 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,28 +441,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/US_USUARIOS.xlsx
@@ -416,9 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
